--- a/Load/ontology/Gates/GEMS1A/doc/GEMS1A_testResultsVariables.xlsx
+++ b/Load/ontology/Gates/GEMS1A/doc/GEMS1A_testResultsVariables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lindsabr\Desktop\Git\ApiCommonData\ApiCommonData\Load\ontology\Gates\GEMS1A\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C04C21A4-6B8F-4E66-907F-E92FD684D556}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4C3EF2-3A2C-4CB4-92C0-305C19F8003E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="463" yWindow="694" windowWidth="23914" windowHeight="15497" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="GEMS1A_testResultsVariables" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="196">
   <si>
     <t>displayOrder</t>
   </si>
@@ -1493,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2215,9 +2214,7 @@
       <c r="L19" t="s">
         <v>38</v>
       </c>
-      <c r="M19" s="5" t="s">
-        <v>189</v>
-      </c>
+      <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B20" s="3" t="s">
